--- a/dataSet/temp.xlsx
+++ b/dataSet/temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="-15" windowWidth="9810" windowHeight="8760" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="9765" yWindow="-15" windowWidth="9810" windowHeight="8760" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="abs" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="ass1_07_08" sheetId="7" r:id="rId5"/>
     <sheet name="ass1_09_10" sheetId="9" r:id="rId6"/>
     <sheet name="ass1_12_13" sheetId="10" r:id="rId7"/>
+    <sheet name="total" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="14">
   <si>
     <t>Ver</t>
   </si>
@@ -56,6 +57,12 @@
   </si>
   <si>
     <t>CA(i)%</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parser </t>
   </si>
 </sst>
 </file>
@@ -407,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,9 +432,11 @@
     <col min="13" max="13" width="13.5703125" style="2" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" style="2" customWidth="1"/>
     <col min="15" max="15" width="12.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -467,8 +476,20 @@
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -512,8 +533,24 @@
         <f>ROUND(M2*100/N2,2)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <f>SUM(E2:E8)</f>
+        <v>3816</v>
+      </c>
+      <c r="R2">
+        <f>SUM(F2:F8)</f>
+        <v>727</v>
+      </c>
+      <c r="S2">
+        <f>SUM(G2:G8)</f>
+        <v>171</v>
+      </c>
+      <c r="T2">
+        <f>SUM(R2,S2)</f>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -557,8 +594,24 @@
         <f t="shared" ref="O3:O6" si="2">ROUND(M3*100/N3,2)</f>
         <v>45.45</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <f>SUM(E9:E15)</f>
+        <v>3817</v>
+      </c>
+      <c r="R3">
+        <f>SUM(F9:F15)</f>
+        <v>729</v>
+      </c>
+      <c r="S3">
+        <f>SUM(G9:G15)</f>
+        <v>172</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T6" si="3">SUM(R3,S3)</f>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -602,8 +655,24 @@
         <f t="shared" si="2"/>
         <v>45.45</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f>SUM(E16:E22)</f>
+        <v>4123</v>
+      </c>
+      <c r="R4">
+        <f>SUM(F16:F22)</f>
+        <v>726</v>
+      </c>
+      <c r="S4">
+        <f>SUM(G16:G22)</f>
+        <v>175</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -647,8 +716,24 @@
         <f t="shared" si="2"/>
         <v>45.45</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f>SUM(E23:E29)</f>
+        <v>4175</v>
+      </c>
+      <c r="R5">
+        <f>SUM(F23:F29)</f>
+        <v>732</v>
+      </c>
+      <c r="S5">
+        <f>SUM(G23:G29)</f>
+        <v>222</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -692,8 +777,24 @@
         <f t="shared" si="2"/>
         <v>40.909999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f>SUM(E30:E36)</f>
+        <v>4176</v>
+      </c>
+      <c r="R6">
+        <f>SUM(F30:F36)</f>
+        <v>933</v>
+      </c>
+      <c r="S6">
+        <f>SUM(G30:G36)</f>
+        <v>233</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -723,7 +824,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -753,7 +854,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -783,7 +884,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -813,7 +914,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -843,7 +944,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -873,7 +974,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>5</v>
       </c>
@@ -903,7 +1004,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>6</v>
       </c>
@@ -933,7 +1034,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>7</v>
       </c>
@@ -963,7 +1064,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1623,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1743,7 @@
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1682,8 +1783,20 @@
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1709,7 +1822,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <f>ROUND(H2*100/C2,2)</f>
+        <f t="shared" ref="I2:I36" si="0">ROUND(H2*100/C2,2)</f>
         <v>66.67</v>
       </c>
       <c r="L2" s="3">
@@ -1727,8 +1840,24 @@
         <f>ROUND(M2*100/N2,2)</f>
         <v>76.92</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <f>SUM(E2:E8)</f>
+        <v>4023</v>
+      </c>
+      <c r="R2">
+        <f>SUM(F2:F8)</f>
+        <v>858</v>
+      </c>
+      <c r="S2">
+        <f>SUM(G2:G8)</f>
+        <v>449</v>
+      </c>
+      <c r="T2">
+        <f>SUM(R2,S2)</f>
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1754,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="2">
-        <f>ROUND(H3*100/C3,2)</f>
+        <f t="shared" si="0"/>
         <v>33.33</v>
       </c>
       <c r="L3" s="3">
@@ -1765,15 +1894,31 @@
         <v>24</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N6" si="0">SUM(C3:C9)</f>
+        <f t="shared" ref="N3:N6" si="1">SUM(C3:C9)</f>
         <v>39</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O6" si="1">ROUND(M3*100/N3,2)</f>
+        <f t="shared" ref="O3:O6" si="2">ROUND(M3*100/N3,2)</f>
         <v>61.54</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <f>SUM(E9:E15)</f>
+        <v>3870</v>
+      </c>
+      <c r="R3">
+        <f>SUM(F9:F15)</f>
+        <v>838</v>
+      </c>
+      <c r="S3">
+        <f>SUM(G9:G15)</f>
+        <v>458</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T6" si="3">SUM(R3,S3)</f>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1799,7 +1944,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="2">
-        <f>ROUND(H4*100/C4,2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="L4" s="3">
@@ -1810,15 +1955,31 @@
         <v>24</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.54</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f>SUM(E16:E22)</f>
+        <v>3870</v>
+      </c>
+      <c r="R4">
+        <f>SUM(F6:F22)</f>
+        <v>2034</v>
+      </c>
+      <c r="S4">
+        <f>SUM(G16:G22)</f>
+        <v>460</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1844,7 +2005,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="2">
-        <f>ROUND(H5*100/C5,2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="L5" s="3">
@@ -1855,15 +2016,31 @@
         <v>28</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71.790000000000006</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f>SUM(E23:E29)</f>
+        <v>4235</v>
+      </c>
+      <c r="R5">
+        <f>SUM(F23:F29)</f>
+        <v>932</v>
+      </c>
+      <c r="S5">
+        <f>SUM(G23:G29)</f>
+        <v>576</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1889,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="2">
-        <f>ROUND(H6*100/C6,2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="L6" s="3">
@@ -1900,15 +2077,31 @@
         <v>22</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.41</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f>SUM(E30:E36)</f>
+        <v>3929</v>
+      </c>
+      <c r="R6">
+        <f>SUM(F30:F36)</f>
+        <v>843</v>
+      </c>
+      <c r="S6">
+        <f>SUM(G30:G36)</f>
+        <v>550</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1934,11 +2127,11 @@
         <v>2</v>
       </c>
       <c r="I7" s="2">
-        <f>ROUND(H7*100/C7,2)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1964,11 +2157,11 @@
         <v>5</v>
       </c>
       <c r="I8" s="2">
-        <f>ROUND(H8*100/C8,2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1994,11 +2187,11 @@
         <v>4</v>
       </c>
       <c r="I9" s="2">
-        <f>ROUND(H9*100/C9,2)</f>
+        <f t="shared" si="0"/>
         <v>66.67</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -2024,11 +2217,11 @@
         <v>2</v>
       </c>
       <c r="I10" s="2">
-        <f>ROUND(H10*100/C10,2)</f>
+        <f t="shared" si="0"/>
         <v>33.33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -2054,11 +2247,11 @@
         <v>4</v>
       </c>
       <c r="I11" s="2">
-        <f>ROUND(H11*100/C11,2)</f>
+        <f t="shared" si="0"/>
         <v>66.67</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -2084,11 +2277,11 @@
         <v>6</v>
       </c>
       <c r="I12" s="2">
-        <f>ROUND(H12*100/C12,2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>5</v>
       </c>
@@ -2114,11 +2307,11 @@
         <v>3</v>
       </c>
       <c r="I13" s="2">
-        <f>ROUND(H13*100/C13,2)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -2144,11 +2337,11 @@
         <v>2</v>
       </c>
       <c r="I14" s="2">
-        <f>ROUND(H14*100/C14,2)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>7</v>
       </c>
@@ -2174,11 +2367,11 @@
         <v>3</v>
       </c>
       <c r="I15" s="2">
-        <f>ROUND(H15*100/C15,2)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -2204,7 +2397,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="2">
-        <f>ROUND(H16*100/C16,2)</f>
+        <f t="shared" si="0"/>
         <v>66.67</v>
       </c>
     </row>
@@ -2234,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="2">
-        <f>ROUND(H17*100/C17,2)</f>
+        <f t="shared" si="0"/>
         <v>33.33</v>
       </c>
     </row>
@@ -2264,7 +2457,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="2">
-        <f>ROUND(H18*100/C18,2)</f>
+        <f t="shared" si="0"/>
         <v>66.67</v>
       </c>
     </row>
@@ -2294,7 +2487,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="2">
-        <f>ROUND(H19*100/C19,2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2324,7 +2517,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="2">
-        <f>ROUND(H20*100/C20,2)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -2354,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="2">
-        <f>ROUND(H21*100/C21,2)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -2384,7 +2577,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="2">
-        <f>ROUND(H22*100/C22,2)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -2414,7 +2607,7 @@
         <v>4</v>
       </c>
       <c r="I23" s="2">
-        <f>ROUND(H23*100/C23,2)</f>
+        <f t="shared" si="0"/>
         <v>66.67</v>
       </c>
     </row>
@@ -2444,7 +2637,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="2">
-        <f>ROUND(H24*100/C24,2)</f>
+        <f t="shared" si="0"/>
         <v>33.33</v>
       </c>
     </row>
@@ -2474,7 +2667,7 @@
         <v>6</v>
       </c>
       <c r="I25" s="2">
-        <f>ROUND(H25*100/C25,2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2504,7 +2697,7 @@
         <v>6</v>
       </c>
       <c r="I26" s="2">
-        <f>ROUND(H26*100/C26,2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2534,7 +2727,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="2">
-        <f>ROUND(H27*100/C27,2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2564,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="2">
-        <f>ROUND(H28*100/C28,2)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -2594,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="I29" s="2">
-        <f>ROUND(H29*100/C29,2)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -2624,7 +2817,7 @@
         <v>4</v>
       </c>
       <c r="I30" s="2">
-        <f>ROUND(H30*100/C30,2)</f>
+        <f t="shared" si="0"/>
         <v>66.67</v>
       </c>
     </row>
@@ -2654,7 +2847,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="2">
-        <f>ROUND(H31*100/C31,2)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -2684,7 +2877,7 @@
         <v>6</v>
       </c>
       <c r="I32" s="2">
-        <f>ROUND(H32*100/C32,2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2714,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="2">
-        <f>ROUND(H33*100/C33,2)</f>
+        <f t="shared" si="0"/>
         <v>16.670000000000002</v>
       </c>
     </row>
@@ -2744,7 +2937,7 @@
         <v>5</v>
       </c>
       <c r="I34" s="2">
-        <f>ROUND(H34*100/C34,2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -2774,7 +2967,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="2">
-        <f>ROUND(H35*100/C35,2)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -2804,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="2">
-        <f>ROUND(H36*100/C36,2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -2818,10 +3011,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2837,7 +3030,7 @@
     <col min="15" max="15" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2877,8 +3070,20 @@
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2904,7 +3109,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="2">
-        <f>ROUND(H2*100/C2,2)</f>
+        <f t="shared" ref="I2:I11" si="0">ROUND(H2*100/C2,2)</f>
         <v>76.92</v>
       </c>
       <c r="L2" s="3">
@@ -2922,8 +3127,24 @@
         <f>ROUND(M2*100/N2,2)</f>
         <v>65.38</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <f>SUM(E2:E3)</f>
+        <v>863</v>
+      </c>
+      <c r="R2">
+        <f>SUM(F2:F3)</f>
+        <v>953</v>
+      </c>
+      <c r="S2">
+        <f>SUM(G2:G3)</f>
+        <v>1338</v>
+      </c>
+      <c r="T2">
+        <f>SUM(R2:S2)</f>
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2949,7 +3170,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="2">
-        <f>ROUND(H3*100/C3,2)</f>
+        <f t="shared" si="0"/>
         <v>53.85</v>
       </c>
       <c r="L3" s="3">
@@ -2960,15 +3181,31 @@
         <v>16</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N6" si="0">SUM(C3:C4)</f>
+        <f t="shared" ref="N3:N6" si="1">SUM(C3:C4)</f>
         <v>26</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O6" si="1">ROUND(M3*100/N3,2)</f>
+        <f t="shared" ref="O3:O6" si="2">ROUND(M3*100/N3,2)</f>
         <v>61.54</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <f>SUM(E4:E5)</f>
+        <v>864</v>
+      </c>
+      <c r="R3">
+        <f>SUM(F4:F5)</f>
+        <v>991</v>
+      </c>
+      <c r="S3">
+        <f>SUM(G4:G5)</f>
+        <v>1607</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T6" si="3">SUM(R3:S3)</f>
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2994,7 +3231,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="2">
-        <f>ROUND(H4*100/C4,2)</f>
+        <f t="shared" si="0"/>
         <v>69.23</v>
       </c>
       <c r="L4" s="3">
@@ -3005,15 +3242,31 @@
         <v>16</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.54</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f>SUM(E6:E7)</f>
+        <v>863</v>
+      </c>
+      <c r="R4">
+        <f>SUM(F6:F7)</f>
+        <v>1091</v>
+      </c>
+      <c r="S4">
+        <f>SUM(G6:G7)</f>
+        <v>1486</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -3039,7 +3292,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="2">
-        <f>ROUND(H5*100/C5,2)</f>
+        <f t="shared" si="0"/>
         <v>53.85</v>
       </c>
       <c r="L5" s="3">
@@ -3050,15 +3303,31 @@
         <v>20</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76.92</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f>SUM(E8:E9)</f>
+        <v>882</v>
+      </c>
+      <c r="R5">
+        <f>SUM(F8:F9)</f>
+        <v>978</v>
+      </c>
+      <c r="S5">
+        <f>SUM(G8:G9)</f>
+        <v>1541</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3084,7 +3353,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="2">
-        <f>ROUND(H6*100/C6,2)</f>
+        <f t="shared" si="0"/>
         <v>69.23</v>
       </c>
       <c r="L6" s="3">
@@ -3095,15 +3364,31 @@
         <v>11</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.31</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f>SUM(E10:E11)</f>
+        <v>882</v>
+      </c>
+      <c r="R6">
+        <f>SUM(F10:F11)</f>
+        <v>1210</v>
+      </c>
+      <c r="S6">
+        <f>SUM(G10:G11)</f>
+        <v>1575</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -3129,11 +3414,11 @@
         <v>7</v>
       </c>
       <c r="I7" s="2">
-        <f>ROUND(H7*100/C7,2)</f>
+        <f t="shared" si="0"/>
         <v>53.85</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -3159,11 +3444,11 @@
         <v>10</v>
       </c>
       <c r="I8" s="2">
-        <f>ROUND(H8*100/C8,2)</f>
+        <f t="shared" si="0"/>
         <v>76.92</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -3189,11 +3474,11 @@
         <v>10</v>
       </c>
       <c r="I9" s="2">
-        <f>ROUND(H9*100/C9,2)</f>
+        <f t="shared" si="0"/>
         <v>76.92</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3219,11 +3504,11 @@
         <v>9</v>
       </c>
       <c r="I10" s="2">
-        <f>ROUND(H10*100/C10,2)</f>
+        <f t="shared" si="0"/>
         <v>69.23</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3249,7 +3534,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="2">
-        <f>ROUND(H11*100/C11,2)</f>
+        <f t="shared" si="0"/>
         <v>15.38</v>
       </c>
     </row>
@@ -3263,10 +3548,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:O1"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3282,7 +3567,7 @@
     <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3322,8 +3607,20 @@
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3349,7 +3646,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="2">
-        <f>ROUND(H2*100/C2,2)</f>
+        <f t="shared" ref="I2:I11" si="0">ROUND(H2*100/C2,2)</f>
         <v>71.430000000000007</v>
       </c>
       <c r="L2" s="3">
@@ -3367,8 +3664,24 @@
         <f>ROUND(M2*100/N2,2)</f>
         <v>71.430000000000007</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <f>SUM(E2:E3)</f>
+        <v>878</v>
+      </c>
+      <c r="R2">
+        <f>SUM(F2:F3)</f>
+        <v>1724</v>
+      </c>
+      <c r="S2">
+        <f>SUM(G2:G3)</f>
+        <v>268</v>
+      </c>
+      <c r="T2">
+        <f>SUM(R2:S2)</f>
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3394,7 +3707,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="2">
-        <f>ROUND(H3*100/C3,2)</f>
+        <f t="shared" si="0"/>
         <v>71.430000000000007</v>
       </c>
       <c r="L3" s="3">
@@ -3405,15 +3718,31 @@
         <v>20</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N6" si="0">SUM(C3:C4)</f>
+        <f t="shared" ref="N3:N6" si="1">SUM(C3:C4)</f>
         <v>28</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O6" si="1">ROUND(M3*100/N3,2)</f>
+        <f t="shared" ref="O3:O6" si="2">ROUND(M3*100/N3,2)</f>
         <v>71.430000000000007</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <f>SUM(E4:E5)</f>
+        <v>878</v>
+      </c>
+      <c r="R3">
+        <f>SUM(F4:F5)</f>
+        <v>1680</v>
+      </c>
+      <c r="S3">
+        <f>SUM(G4:G5)</f>
+        <v>309</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T6" si="3">SUM(R3:S3)</f>
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3439,7 +3768,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="2">
-        <f>ROUND(H4*100/C4,2)</f>
+        <f t="shared" si="0"/>
         <v>71.430000000000007</v>
       </c>
       <c r="L4" s="3">
@@ -3450,15 +3779,31 @@
         <v>20</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71.430000000000007</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f>SUM(E6:E7)</f>
+        <v>878</v>
+      </c>
+      <c r="R4">
+        <f>SUM(F6:F7)</f>
+        <v>1645</v>
+      </c>
+      <c r="S4">
+        <f>SUM(G6:G7)</f>
+        <v>241</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -3484,7 +3829,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="2">
-        <f>ROUND(H5*100/C5,2)</f>
+        <f t="shared" si="0"/>
         <v>71.430000000000007</v>
       </c>
       <c r="L5" s="3">
@@ -3495,15 +3840,31 @@
         <v>12</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.86</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f>SUM(E8:E9)</f>
+        <v>900</v>
+      </c>
+      <c r="R5">
+        <f>SUM(F8:F9)</f>
+        <v>1647</v>
+      </c>
+      <c r="S5">
+        <f>SUM(G8:G9)</f>
+        <v>313</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3529,7 +3890,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="2">
-        <f>ROUND(H6*100/C6,2)</f>
+        <f t="shared" si="0"/>
         <v>71.430000000000007</v>
       </c>
       <c r="L6" s="3">
@@ -3540,15 +3901,31 @@
         <v>10</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.71</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f>SUM(E10:E11)</f>
+        <v>900</v>
+      </c>
+      <c r="R6">
+        <f>SUM(F10:F11)</f>
+        <v>1646</v>
+      </c>
+      <c r="S6">
+        <f>SUM(G10:G11)</f>
+        <v>312</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -3574,11 +3951,11 @@
         <v>10</v>
       </c>
       <c r="I7" s="2">
-        <f>ROUND(H7*100/C7,2)</f>
+        <f t="shared" si="0"/>
         <v>71.430000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -3604,11 +3981,11 @@
         <v>10</v>
       </c>
       <c r="I8" s="2">
-        <f>ROUND(H8*100/C8,2)</f>
+        <f t="shared" si="0"/>
         <v>71.430000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -3634,11 +4011,11 @@
         <v>2</v>
       </c>
       <c r="I9" s="2">
-        <f>ROUND(H9*100/C9,2)</f>
+        <f t="shared" si="0"/>
         <v>14.29</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3664,11 +4041,11 @@
         <v>7</v>
       </c>
       <c r="I10" s="2">
-        <f>ROUND(H10*100/C10,2)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3694,7 +4071,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="2">
-        <f>ROUND(H11*100/C11,2)</f>
+        <f t="shared" si="0"/>
         <v>21.43</v>
       </c>
     </row>
@@ -3708,10 +4085,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3730,7 +4107,7 @@
     <col min="15" max="15" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3770,8 +4147,20 @@
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3797,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="2">
-        <f>ROUND(H2*100/C2,2)</f>
+        <f t="shared" ref="I2:I21" si="0">ROUND(H2*100/C2,2)</f>
         <v>8.11</v>
       </c>
       <c r="L2" s="3">
@@ -3815,8 +4204,24 @@
         <f>ROUND(M2*100/N2,2)</f>
         <v>8.7799999999999994</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <f>SUM(E2:E5)</f>
+        <v>1910</v>
+      </c>
+      <c r="R2">
+        <f>SUM(F2:F5)</f>
+        <v>100987</v>
+      </c>
+      <c r="S2">
+        <f>SUM(G2:G5)</f>
+        <v>334</v>
+      </c>
+      <c r="T2">
+        <f>SUM(R2:S2)</f>
+        <v>101321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3842,7 +4247,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="2">
-        <f>ROUND(H3*100/C3,2)</f>
+        <f t="shared" si="0"/>
         <v>8.11</v>
       </c>
       <c r="L3" s="3">
@@ -3853,15 +4258,31 @@
         <v>13</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N6" si="0">SUM(C3:C6)</f>
+        <f t="shared" ref="N3:N6" si="1">SUM(C3:C6)</f>
         <v>148</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O6" si="1">ROUND(M3*100/N3,2)</f>
+        <f t="shared" ref="O3:O6" si="2">ROUND(M3*100/N3,2)</f>
         <v>8.7799999999999994</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <f>SUM(E6:E9)</f>
+        <v>1910</v>
+      </c>
+      <c r="R3">
+        <f>SUM(F6:F9)</f>
+        <v>107178</v>
+      </c>
+      <c r="S3">
+        <f>SUM(G6:G9)</f>
+        <v>397</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T6" si="3">SUM(R3:S3)</f>
+        <v>107575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3887,7 +4308,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2">
-        <f>ROUND(H4*100/C4,2)</f>
+        <f t="shared" si="0"/>
         <v>13.51</v>
       </c>
       <c r="L4" s="3">
@@ -3898,15 +4319,31 @@
         <v>13</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.7799999999999994</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f>SUM(E10:E13)</f>
+        <v>1910</v>
+      </c>
+      <c r="R4">
+        <f>SUM(F10:F13)</f>
+        <v>106452</v>
+      </c>
+      <c r="S4">
+        <f>SUM(G10:G13)</f>
+        <v>372</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>106824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3932,7 +4369,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="2">
-        <f>ROUND(H5*100/C5,2)</f>
+        <f t="shared" si="0"/>
         <v>5.41</v>
       </c>
       <c r="L5" s="3">
@@ -3943,15 +4380,31 @@
         <v>10</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.76</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f>SUM(E14:E17)</f>
+        <v>1972</v>
+      </c>
+      <c r="R5">
+        <f>SUM(F14:F17)</f>
+        <v>117952</v>
+      </c>
+      <c r="S5">
+        <f>SUM(G14:G17)</f>
+        <v>457</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>118409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3977,7 +4430,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="2">
-        <f>ROUND(H6*100/C6,2)</f>
+        <f t="shared" si="0"/>
         <v>8.11</v>
       </c>
       <c r="L6" s="3">
@@ -3988,15 +4441,31 @@
         <v>10</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.76</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f>SUM(E18:E21)</f>
+        <v>1972</v>
+      </c>
+      <c r="R6">
+        <f>SUM(F18:F21)</f>
+        <v>125771</v>
+      </c>
+      <c r="S6">
+        <f>SUM(G18:G21)</f>
+        <v>603</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>126374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4022,11 +4491,11 @@
         <v>3</v>
       </c>
       <c r="I7" s="2">
-        <f>ROUND(H7*100/C7,2)</f>
+        <f t="shared" si="0"/>
         <v>8.11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -4052,11 +4521,11 @@
         <v>5</v>
       </c>
       <c r="I8" s="2">
-        <f>ROUND(H8*100/C8,2)</f>
+        <f t="shared" si="0"/>
         <v>13.51</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -4082,11 +4551,11 @@
         <v>2</v>
       </c>
       <c r="I9" s="2">
-        <f>ROUND(H9*100/C9,2)</f>
+        <f t="shared" si="0"/>
         <v>5.41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -4112,11 +4581,11 @@
         <v>3</v>
       </c>
       <c r="I10" s="2">
-        <f>ROUND(H10*100/C10,2)</f>
+        <f t="shared" si="0"/>
         <v>8.11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4142,11 +4611,11 @@
         <v>3</v>
       </c>
       <c r="I11" s="2">
-        <f>ROUND(H11*100/C11,2)</f>
+        <f t="shared" si="0"/>
         <v>8.11</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -4172,11 +4641,11 @@
         <v>5</v>
       </c>
       <c r="I12" s="2">
-        <f>ROUND(H12*100/C12,2)</f>
+        <f t="shared" si="0"/>
         <v>13.51</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -4202,11 +4671,11 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <f>ROUND(H13*100/C13,2)</f>
+        <f t="shared" si="0"/>
         <v>5.41</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -4232,11 +4701,11 @@
         <v>2</v>
       </c>
       <c r="I14" s="2">
-        <f>ROUND(H14*100/C14,2)</f>
+        <f t="shared" si="0"/>
         <v>5.41</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -4262,11 +4731,11 @@
         <v>2</v>
       </c>
       <c r="I15" s="2">
-        <f>ROUND(H15*100/C15,2)</f>
+        <f t="shared" si="0"/>
         <v>5.41</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -4292,7 +4761,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f>ROUND(H16*100/C16,2)</f>
+        <f t="shared" si="0"/>
         <v>13.51</v>
       </c>
     </row>
@@ -4322,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="2">
-        <f>ROUND(H17*100/C17,2)</f>
+        <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
     </row>
@@ -4352,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="2">
-        <f>ROUND(H18*100/C18,2)</f>
+        <f t="shared" si="0"/>
         <v>5.41</v>
       </c>
     </row>
@@ -4382,7 +4851,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="2">
-        <f>ROUND(H19*100/C19,2)</f>
+        <f t="shared" si="0"/>
         <v>5.41</v>
       </c>
     </row>
@@ -4412,7 +4881,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="2">
-        <f>ROUND(H20*100/C20,2)</f>
+        <f t="shared" si="0"/>
         <v>13.51</v>
       </c>
     </row>
@@ -4442,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="2">
-        <f>ROUND(H21*100/C21,2)</f>
+        <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
     </row>
@@ -4456,10 +4925,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4476,7 +4945,7 @@
     <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4516,8 +4985,20 @@
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4543,7 +5024,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="2">
-        <f>ROUND(H2*100/C2,2)</f>
+        <f t="shared" ref="I2:I36" si="0">ROUND(H2*100/C2,2)</f>
         <v>41.67</v>
       </c>
       <c r="L2" s="3">
@@ -4561,8 +5042,24 @@
         <f>ROUND(M2*100/N2,2)</f>
         <v>25.49</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <f>SUM(E2:E8)</f>
+        <v>3326</v>
+      </c>
+      <c r="R2">
+        <f>SUM(F2:F8)</f>
+        <v>29797</v>
+      </c>
+      <c r="S2">
+        <f>SUM(G2:G8)</f>
+        <v>2428</v>
+      </c>
+      <c r="T2">
+        <f>SUM(R2:S2)</f>
+        <v>32225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4588,7 +5085,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="2">
-        <f>ROUND(H3*100/C3,2)</f>
+        <f t="shared" si="0"/>
         <v>45.83</v>
       </c>
       <c r="L3" s="3">
@@ -4599,15 +5096,31 @@
         <v>44</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N6" si="0">SUM(C3:C9)</f>
+        <f t="shared" ref="N3:N6" si="1">SUM(C3:C9)</f>
         <v>204</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O6" si="1">ROUND(M3*100/N3,2)</f>
+        <f t="shared" ref="O3:O6" si="2">ROUND(M3*100/N3,2)</f>
         <v>21.57</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <f>SUM(E9:E15)</f>
+        <v>3326</v>
+      </c>
+      <c r="R3">
+        <f>SUM(F9:F15)</f>
+        <v>32707</v>
+      </c>
+      <c r="S3">
+        <f>SUM(G9:G15)</f>
+        <v>2567</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T6" si="3">SUM(R3:S3)</f>
+        <v>35274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4633,7 +5146,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="2">
-        <f>ROUND(H4*100/C4,2)</f>
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="L4" s="3">
@@ -4644,15 +5157,31 @@
         <v>44</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>204</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.57</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f>SUM(E16:E22)</f>
+        <v>3326</v>
+      </c>
+      <c r="R4">
+        <f>SUM(F16:F22)</f>
+        <v>32676</v>
+      </c>
+      <c r="S4">
+        <f>SUM(G16:G22)</f>
+        <v>2694</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>35370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4678,7 +5207,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="2">
-        <f>ROUND(H5*100/C5,2)</f>
+        <f t="shared" si="0"/>
         <v>27.27</v>
       </c>
       <c r="L5" s="3">
@@ -4689,15 +5218,31 @@
         <v>39</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>204</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f>SUM(E23:E29)</f>
+        <v>3433</v>
+      </c>
+      <c r="R5">
+        <f>SUM(F23:F29)</f>
+        <v>33282</v>
+      </c>
+      <c r="S5">
+        <f>SUM(G23:G29)</f>
+        <v>2943</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>36225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4723,7 +5268,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="2">
-        <f>ROUND(H6*100/C6,2)</f>
+        <f t="shared" si="0"/>
         <v>9.09</v>
       </c>
       <c r="L6" s="3">
@@ -4734,15 +5279,31 @@
         <v>37</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>204</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.14</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f>SUM(E30:E36)</f>
+        <v>3436</v>
+      </c>
+      <c r="R6">
+        <f>SUM(F30:F36)</f>
+        <v>32248</v>
+      </c>
+      <c r="S6">
+        <f>SUM(G30:G36)</f>
+        <v>2836</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>35084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4768,11 +5329,11 @@
         <v>2</v>
       </c>
       <c r="I7" s="2">
-        <f>ROUND(H7*100/C7,2)</f>
+        <f t="shared" si="0"/>
         <v>6.06</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4798,11 +5359,11 @@
         <v>8</v>
       </c>
       <c r="I8" s="2">
-        <f>ROUND(H8*100/C8,2)</f>
+        <f t="shared" si="0"/>
         <v>24.24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -4828,11 +5389,11 @@
         <v>9</v>
       </c>
       <c r="I9" s="2">
-        <f>ROUND(H9*100/C9,2)</f>
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -4858,11 +5419,11 @@
         <v>11</v>
       </c>
       <c r="I10" s="2">
-        <f>ROUND(H10*100/C10,2)</f>
+        <f t="shared" si="0"/>
         <v>45.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -4888,11 +5449,11 @@
         <v>7</v>
       </c>
       <c r="I11" s="2">
-        <f>ROUND(H11*100/C11,2)</f>
+        <f t="shared" si="0"/>
         <v>29.17</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -4918,11 +5479,11 @@
         <v>6</v>
       </c>
       <c r="I12" s="2">
-        <f>ROUND(H12*100/C12,2)</f>
+        <f t="shared" si="0"/>
         <v>18.18</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>5</v>
       </c>
@@ -4948,11 +5509,11 @@
         <v>1</v>
       </c>
       <c r="I13" s="2">
-        <f>ROUND(H13*100/C13,2)</f>
+        <f t="shared" si="0"/>
         <v>3.03</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>6</v>
       </c>
@@ -4978,11 +5539,11 @@
         <v>2</v>
       </c>
       <c r="I14" s="2">
-        <f>ROUND(H14*100/C14,2)</f>
+        <f t="shared" si="0"/>
         <v>6.06</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>7</v>
       </c>
@@ -5008,11 +5569,11 @@
         <v>8</v>
       </c>
       <c r="I15" s="2">
-        <f>ROUND(H15*100/C15,2)</f>
+        <f t="shared" si="0"/>
         <v>24.24</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -5038,7 +5599,7 @@
         <v>9</v>
       </c>
       <c r="I16" s="2">
-        <f>ROUND(H16*100/C16,2)</f>
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
     </row>
@@ -5068,7 +5629,7 @@
         <v>11</v>
       </c>
       <c r="I17" s="2">
-        <f>ROUND(H17*100/C17,2)</f>
+        <f t="shared" si="0"/>
         <v>45.83</v>
       </c>
     </row>
@@ -5098,7 +5659,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="2">
-        <f>ROUND(H18*100/C18,2)</f>
+        <f t="shared" si="0"/>
         <v>29.17</v>
       </c>
     </row>
@@ -5128,7 +5689,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="2">
-        <f>ROUND(H19*100/C19,2)</f>
+        <f t="shared" si="0"/>
         <v>18.18</v>
       </c>
     </row>
@@ -5158,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="2">
-        <f>ROUND(H20*100/C20,2)</f>
+        <f t="shared" si="0"/>
         <v>3.03</v>
       </c>
     </row>
@@ -5188,7 +5749,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="2">
-        <f>ROUND(H21*100/C21,2)</f>
+        <f t="shared" si="0"/>
         <v>6.06</v>
       </c>
     </row>
@@ -5218,7 +5779,7 @@
         <v>8</v>
       </c>
       <c r="I22" s="2">
-        <f>ROUND(H22*100/C22,2)</f>
+        <f t="shared" si="0"/>
         <v>24.24</v>
       </c>
     </row>
@@ -5248,7 +5809,7 @@
         <v>8</v>
       </c>
       <c r="I23" s="2">
-        <f>ROUND(H23*100/C23,2)</f>
+        <f t="shared" si="0"/>
         <v>33.33</v>
       </c>
     </row>
@@ -5278,7 +5839,7 @@
         <v>7</v>
       </c>
       <c r="I24" s="2">
-        <f>ROUND(H24*100/C24,2)</f>
+        <f t="shared" si="0"/>
         <v>29.17</v>
       </c>
     </row>
@@ -5308,7 +5869,7 @@
         <v>6</v>
       </c>
       <c r="I25" s="2">
-        <f>ROUND(H25*100/C25,2)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -5338,7 +5899,7 @@
         <v>7</v>
       </c>
       <c r="I26" s="2">
-        <f>ROUND(H26*100/C26,2)</f>
+        <f t="shared" si="0"/>
         <v>21.21</v>
       </c>
     </row>
@@ -5368,7 +5929,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="2">
-        <f>ROUND(H27*100/C27,2)</f>
+        <f t="shared" si="0"/>
         <v>6.06</v>
       </c>
     </row>
@@ -5398,7 +5959,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="2">
-        <f>ROUND(H28*100/C28,2)</f>
+        <f t="shared" si="0"/>
         <v>3.03</v>
       </c>
     </row>
@@ -5428,7 +5989,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="2">
-        <f>ROUND(H29*100/C29,2)</f>
+        <f t="shared" si="0"/>
         <v>24.24</v>
       </c>
     </row>
@@ -5458,7 +6019,7 @@
         <v>8</v>
       </c>
       <c r="I30" s="2">
-        <f>ROUND(H30*100/C30,2)</f>
+        <f t="shared" si="0"/>
         <v>33.33</v>
       </c>
     </row>
@@ -5488,7 +6049,7 @@
         <v>7</v>
       </c>
       <c r="I31" s="2">
-        <f>ROUND(H31*100/C31,2)</f>
+        <f t="shared" si="0"/>
         <v>29.17</v>
       </c>
     </row>
@@ -5518,7 +6079,7 @@
         <v>6</v>
       </c>
       <c r="I32" s="2">
-        <f>ROUND(H32*100/C32,2)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -5548,7 +6109,7 @@
         <v>6</v>
       </c>
       <c r="I33" s="2">
-        <f>ROUND(H33*100/C33,2)</f>
+        <f t="shared" si="0"/>
         <v>18.18</v>
       </c>
     </row>
@@ -5578,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="2">
-        <f>ROUND(H34*100/C34,2)</f>
+        <f t="shared" si="0"/>
         <v>3.03</v>
       </c>
     </row>
@@ -5608,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="2">
-        <f>ROUND(H35*100/C35,2)</f>
+        <f t="shared" si="0"/>
         <v>3.03</v>
       </c>
     </row>
@@ -5638,7 +6199,7 @@
         <v>8</v>
       </c>
       <c r="I36" s="2">
-        <f>ROUND(H36*100/C36,2)</f>
+        <f t="shared" si="0"/>
         <v>24.24</v>
       </c>
     </row>
@@ -5652,10 +6213,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5672,7 +6233,7 @@
     <col min="15" max="15" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5712,8 +6273,20 @@
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5739,7 +6312,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="2">
-        <f>ROUND(H2*100/C2,2)</f>
+        <f t="shared" ref="I2:I41" si="0">ROUND(H2*100/C2,2)</f>
         <v>28.57</v>
       </c>
       <c r="L2" s="3">
@@ -5757,8 +6330,24 @@
         <f>ROUND(M2*100/N2,2)</f>
         <v>32.86</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <f>SUM(E2:E9)</f>
+        <v>4084</v>
+      </c>
+      <c r="R2">
+        <f>SUM(F2:F9)</f>
+        <v>716954</v>
+      </c>
+      <c r="S2">
+        <f>SUM(G2:G9)</f>
+        <v>3258</v>
+      </c>
+      <c r="T2">
+        <f>SUM(R2:S2)</f>
+        <v>720212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5784,7 +6373,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="2">
-        <f>ROUND(H3*100/C3,2)</f>
+        <f t="shared" si="0"/>
         <v>4.6500000000000004</v>
       </c>
       <c r="L3" s="3">
@@ -5795,15 +6384,31 @@
         <v>58</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N6" si="0">SUM(C3:C10)</f>
+        <f t="shared" ref="N3:N6" si="1">SUM(C3:C10)</f>
         <v>350</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O6" si="1">ROUND(M3*100/N3,2)</f>
+        <f t="shared" ref="O3:O6" si="2">ROUND(M3*100/N3,2)</f>
         <v>16.57</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <f>SUM(E10:E17)</f>
+        <v>4084</v>
+      </c>
+      <c r="R3">
+        <f>SUM(F10:F17)</f>
+        <v>717158</v>
+      </c>
+      <c r="S3">
+        <f>SUM(G10:G17)</f>
+        <v>3609</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T6" si="3">SUM(R3:S3)</f>
+        <v>720767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5829,7 +6434,7 @@
         <v>35</v>
       </c>
       <c r="I4" s="2">
-        <f>ROUND(H4*100/C4,2)</f>
+        <f t="shared" si="0"/>
         <v>81.400000000000006</v>
       </c>
       <c r="L4" s="3">
@@ -5840,15 +6445,31 @@
         <v>60</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.14</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f>SUM(E18:E25)</f>
+        <v>4084</v>
+      </c>
+      <c r="R4">
+        <f>SUM(F18:F25)</f>
+        <v>786516</v>
+      </c>
+      <c r="S4">
+        <f>SUM(G18:G25)</f>
+        <v>4231</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>790747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5874,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2">
-        <f>ROUND(H5*100/C5,2)</f>
+        <f t="shared" si="0"/>
         <v>2.33</v>
       </c>
       <c r="L5" s="3">
@@ -5885,15 +6506,31 @@
         <v>75</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.43</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f>SUM(E26:E33)</f>
+        <v>4239</v>
+      </c>
+      <c r="R5">
+        <f>SUM(F26:F33)</f>
+        <v>775683</v>
+      </c>
+      <c r="S5">
+        <f>SUM(G26:G33)</f>
+        <v>4531</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>780214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -5919,7 +6556,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="2">
-        <f>ROUND(H6*100/C6,2)</f>
+        <f t="shared" si="0"/>
         <v>13.95</v>
       </c>
       <c r="L6" s="3">
@@ -5930,15 +6567,31 @@
         <v>49</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f>SUM(E34:E41)</f>
+        <v>4239</v>
+      </c>
+      <c r="R6">
+        <f>SUM(F34:F41)</f>
+        <v>781479</v>
+      </c>
+      <c r="S6">
+        <f>SUM(G34:G41)</f>
+        <v>5041</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>786520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -5964,11 +6617,11 @@
         <v>33</v>
       </c>
       <c r="I7" s="2">
-        <f>ROUND(H7*100/C7,2)</f>
+        <f t="shared" si="0"/>
         <v>76.739999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -5994,11 +6647,11 @@
         <v>11</v>
       </c>
       <c r="I8" s="2">
-        <f>ROUND(H8*100/C8,2)</f>
+        <f t="shared" si="0"/>
         <v>25.58</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -6024,11 +6677,11 @@
         <v>13</v>
       </c>
       <c r="I9" s="2">
-        <f>ROUND(H9*100/C9,2)</f>
+        <f t="shared" si="0"/>
         <v>30.23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -6054,11 +6707,11 @@
         <v>2</v>
       </c>
       <c r="I10" s="2">
-        <f>ROUND(H10*100/C10,2)</f>
+        <f t="shared" si="0"/>
         <v>4.08</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -6084,11 +6737,11 @@
         <v>2</v>
       </c>
       <c r="I11" s="2">
-        <f>ROUND(H11*100/C11,2)</f>
+        <f t="shared" si="0"/>
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -6114,11 +6767,11 @@
         <v>16</v>
       </c>
       <c r="I12" s="2">
-        <f>ROUND(H12*100/C12,2)</f>
+        <f t="shared" si="0"/>
         <v>37.21</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -6144,11 +6797,11 @@
         <v>1</v>
       </c>
       <c r="I13" s="2">
-        <f>ROUND(H13*100/C13,2)</f>
+        <f t="shared" si="0"/>
         <v>2.33</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -6174,11 +6827,11 @@
         <v>2</v>
       </c>
       <c r="I14" s="2">
-        <f>ROUND(H14*100/C14,2)</f>
+        <f t="shared" si="0"/>
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -6204,11 +6857,11 @@
         <v>17</v>
       </c>
       <c r="I15" s="2">
-        <f>ROUND(H15*100/C15,2)</f>
+        <f t="shared" si="0"/>
         <v>39.53</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -6234,7 +6887,7 @@
         <v>9</v>
       </c>
       <c r="I16" s="2">
-        <f>ROUND(H16*100/C16,2)</f>
+        <f t="shared" si="0"/>
         <v>20.93</v>
       </c>
     </row>
@@ -6264,7 +6917,7 @@
         <v>9</v>
       </c>
       <c r="I17" s="2">
-        <f>ROUND(H17*100/C17,2)</f>
+        <f t="shared" si="0"/>
         <v>20.93</v>
       </c>
     </row>
@@ -6294,7 +6947,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="2">
-        <f>ROUND(H18*100/C18,2)</f>
+        <f t="shared" si="0"/>
         <v>4.08</v>
       </c>
     </row>
@@ -6324,7 +6977,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="2">
-        <f>ROUND(H19*100/C19,2)</f>
+        <f t="shared" si="0"/>
         <v>4.6500000000000004</v>
       </c>
     </row>
@@ -6354,7 +7007,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="2">
-        <f>ROUND(H20*100/C20,2)</f>
+        <f t="shared" si="0"/>
         <v>37.21</v>
       </c>
     </row>
@@ -6384,7 +7037,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="2">
-        <f>ROUND(H21*100/C21,2)</f>
+        <f t="shared" si="0"/>
         <v>2.33</v>
       </c>
     </row>
@@ -6414,7 +7067,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="2">
-        <f>ROUND(H22*100/C22,2)</f>
+        <f t="shared" si="0"/>
         <v>4.6500000000000004</v>
       </c>
     </row>
@@ -6444,7 +7097,7 @@
         <v>17</v>
       </c>
       <c r="I23" s="2">
-        <f>ROUND(H23*100/C23,2)</f>
+        <f t="shared" si="0"/>
         <v>39.53</v>
       </c>
     </row>
@@ -6474,7 +7127,7 @@
         <v>11</v>
       </c>
       <c r="I24" s="2">
-        <f>ROUND(H24*100/C24,2)</f>
+        <f t="shared" si="0"/>
         <v>25.58</v>
       </c>
     </row>
@@ -6504,7 +7157,7 @@
         <v>9</v>
       </c>
       <c r="I25" s="2">
-        <f>ROUND(H25*100/C25,2)</f>
+        <f t="shared" si="0"/>
         <v>20.93</v>
       </c>
     </row>
@@ -6534,7 +7187,7 @@
         <v>7</v>
       </c>
       <c r="I26" s="2">
-        <f>ROUND(H26*100/C26,2)</f>
+        <f t="shared" si="0"/>
         <v>14.29</v>
       </c>
     </row>
@@ -6564,7 +7217,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="2">
-        <f>ROUND(H27*100/C27,2)</f>
+        <f t="shared" si="0"/>
         <v>4.6500000000000004</v>
       </c>
     </row>
@@ -6594,7 +7247,7 @@
         <v>26</v>
       </c>
       <c r="I28" s="2">
-        <f>ROUND(H28*100/C28,2)</f>
+        <f t="shared" si="0"/>
         <v>60.47</v>
       </c>
     </row>
@@ -6624,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="2">
-        <f>ROUND(H29*100/C29,2)</f>
+        <f t="shared" si="0"/>
         <v>2.33</v>
       </c>
     </row>
@@ -6654,7 +7307,7 @@
         <v>3</v>
       </c>
       <c r="I30" s="2">
-        <f>ROUND(H30*100/C30,2)</f>
+        <f t="shared" si="0"/>
         <v>6.98</v>
       </c>
     </row>
@@ -6684,7 +7337,7 @@
         <v>25</v>
       </c>
       <c r="I31" s="2">
-        <f>ROUND(H31*100/C31,2)</f>
+        <f t="shared" si="0"/>
         <v>58.14</v>
       </c>
     </row>
@@ -6714,7 +7367,7 @@
         <v>6</v>
       </c>
       <c r="I32" s="2">
-        <f>ROUND(H32*100/C32,2)</f>
+        <f t="shared" si="0"/>
         <v>13.95</v>
       </c>
     </row>
@@ -6744,7 +7397,7 @@
         <v>5</v>
       </c>
       <c r="I33" s="2">
-        <f>ROUND(H33*100/C33,2)</f>
+        <f t="shared" si="0"/>
         <v>11.63</v>
       </c>
     </row>
@@ -6774,7 +7427,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="2">
-        <f>ROUND(H34*100/C34,2)</f>
+        <f t="shared" si="0"/>
         <v>4.08</v>
       </c>
     </row>
@@ -6804,7 +7457,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="2">
-        <f>ROUND(H35*100/C35,2)</f>
+        <f t="shared" si="0"/>
         <v>4.6500000000000004</v>
       </c>
     </row>
@@ -6834,7 +7487,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="2">
-        <f>ROUND(H36*100/C36,2)</f>
+        <f t="shared" si="0"/>
         <v>37.21</v>
       </c>
     </row>
@@ -6864,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="2">
-        <f>ROUND(H37*100/C37,2)</f>
+        <f t="shared" si="0"/>
         <v>2.33</v>
       </c>
     </row>
@@ -6894,7 +7547,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="2">
-        <f>ROUND(H38*100/C38,2)</f>
+        <f t="shared" si="0"/>
         <v>4.6500000000000004</v>
       </c>
     </row>
@@ -6924,7 +7577,7 @@
         <v>17</v>
       </c>
       <c r="I39" s="2">
-        <f>ROUND(H39*100/C39,2)</f>
+        <f t="shared" si="0"/>
         <v>39.53</v>
       </c>
     </row>
@@ -6954,7 +7607,7 @@
         <v>4</v>
       </c>
       <c r="I40" s="2">
-        <f>ROUND(H40*100/C40,2)</f>
+        <f t="shared" si="0"/>
         <v>9.3000000000000007</v>
       </c>
     </row>
@@ -6984,7 +7637,7 @@
         <v>5</v>
       </c>
       <c r="I41" s="2">
-        <f>ROUND(H41*100/C41,2)</f>
+        <f t="shared" si="0"/>
         <v>11.63</v>
       </c>
     </row>
@@ -6994,4 +7647,148 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="15.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <f>abs!$Q$2 + factorial!$Q$2 + selectionSort!$Q$2 +bubbleSort!$Q$2 + ass1_07_08!$Q$2 + ass1_09_10!$Q$2 + ass1_12_13!$Q$2</f>
+        <v>18900</v>
+      </c>
+      <c r="C2" s="2">
+        <f>abs!$R$2 + factorial!$R$2 + selectionSort!$R$2 +bubbleSort!$R$2 + ass1_07_08!$R$2 + ass1_09_10!$R$2 + ass1_12_13!$R$2</f>
+        <v>852000</v>
+      </c>
+      <c r="D2" s="2">
+        <f>abs!$S$2 + factorial!$S$2 + selectionSort!$S$2 +bubbleSort!$S$2 + ass1_07_08!$S$2 + ass1_09_10!$S$2 + ass1_12_13!$S$2</f>
+        <v>8246</v>
+      </c>
+      <c r="E2" s="2">
+        <f>SUM(C2:D2)</f>
+        <v>860246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <f>abs!$Q$3 + factorial!$Q$3 + selectionSort!$Q$3 +bubbleSort!$Q$3 + ass1_07_08!$Q$3 + ass1_09_10!$Q$3 + ass1_12_13!$Q$3</f>
+        <v>18749</v>
+      </c>
+      <c r="C3" s="2">
+        <f>abs!$R$3 + factorial!$R$3 + selectionSort!$R$3 +bubbleSort!$R$3 + ass1_07_08!$R$3 + ass1_09_10!$R$3 + ass1_12_13!$R$3</f>
+        <v>861281</v>
+      </c>
+      <c r="D3" s="2">
+        <f>abs!$S$3 + factorial!$S$3 + selectionSort!$S$3 +bubbleSort!$S$3 + ass1_07_08!$S$3 + ass1_09_10!$S$3 + ass1_12_13!$S$3</f>
+        <v>9119</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E6" si="0">SUM(C3:D3)</f>
+        <v>870400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f>abs!$Q$4 + factorial!$Q$4 + selectionSort!$Q$4 +bubbleSort!$Q$4 + ass1_07_08!$Q$4 + ass1_09_10!$Q$4 + ass1_12_13!$Q$4</f>
+        <v>19054</v>
+      </c>
+      <c r="C4" s="2">
+        <f>abs!$R$4 + factorial!$R$4 + selectionSort!$R$4 +bubbleSort!$R$4 + ass1_07_08!$R$4 + ass1_09_10!$R$4 + ass1_12_13!$R$4</f>
+        <v>931140</v>
+      </c>
+      <c r="D4" s="2">
+        <f>abs!$S$4 + factorial!$S$4 + selectionSort!$S$4 +bubbleSort!$S$4 + ass1_07_08!$S$4 + ass1_09_10!$S$4 + ass1_12_13!$S$4</f>
+        <v>9659</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>940799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <f>abs!$Q$5 + factorial!$Q$5 + selectionSort!$Q$5 +bubbleSort!$Q$5 + ass1_07_08!$Q$5 + ass1_09_10!$Q$5 + ass1_12_13!$Q$5</f>
+        <v>19836</v>
+      </c>
+      <c r="C5" s="2">
+        <f>abs!$R$5 + factorial!$R$5 + selectionSort!$R$5 +bubbleSort!$R$5 + ass1_07_08!$R$5 + ass1_09_10!$R$5 + ass1_12_13!$R$5</f>
+        <v>931206</v>
+      </c>
+      <c r="D5" s="2">
+        <f>abs!$S$5 + factorial!$S$5 + selectionSort!$S$5 +bubbleSort!$S$5 + ass1_07_08!$S$5 + ass1_09_10!$S$5 + ass1_12_13!$S$5</f>
+        <v>10583</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>941789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <f>abs!$Q$6 + factorial!$Q$6 + selectionSort!$Q$6 +bubbleSort!$Q$6 + ass1_07_08!$Q$6 + ass1_09_10!$Q$6 + ass1_12_13!$Q$6</f>
+        <v>19534</v>
+      </c>
+      <c r="C6" s="2">
+        <f>abs!$R$6 + factorial!$R$6 + selectionSort!$R$6 +bubbleSort!$R$6 + ass1_07_08!$R$6 + ass1_09_10!$R$6 + ass1_12_13!$R$6</f>
+        <v>944130</v>
+      </c>
+      <c r="D6" s="2">
+        <f>abs!$S$6 + factorial!$S$6 + selectionSort!$S$6 +bubbleSort!$S$6 + ass1_07_08!$S$6 + ass1_09_10!$S$6 + ass1_12_13!$S$6</f>
+        <v>11150</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>955280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>